--- a/results/df_results.xlsx
+++ b/results/df_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,6 +521,47 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>from models.GNN_first import GCN</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Formation_energy (eV/atom)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>data/graphs_structures_Fm_3m</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0.8123</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.6825</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>New prediction</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
